--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\566474\Documents\Playgroud\c#\plc\PlcApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\566474\Documents\Projects\plc\PlcConnect\PlcConnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB35F24-3BA8-44EC-AB50-F972300CD60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EFEDA-46F1-4B40-9FCD-C4860FB14D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77B4C35D-4F0D-4500-8465-1776D1B96FB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77B4C35D-4F0D-4500-8465-1776D1B96FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Read" sheetId="4" r:id="rId2"/>
+    <sheet name="Write" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Read</t>
   </si>
@@ -121,9 +145,6 @@
     </r>
   </si>
   <si>
-    <t>command (hex)</t>
-  </si>
-  <si>
     <t>$"500000FF03FF00001E000400010001{address:X4}01{value:X4}"; // Write D register</t>
   </si>
   <si>
@@ -338,13 +359,67 @@
       </rPr>
       <t>01</t>
     </r>
+  </si>
+  <si>
+    <t>command (ASCII)</t>
+  </si>
+  <si>
+    <t>Relay (M1000)</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D1001</t>
+  </si>
+  <si>
+    <t>D1002</t>
+  </si>
+  <si>
+    <t>D1003</t>
+  </si>
+  <si>
+    <t>D1004</t>
+  </si>
+  <si>
+    <t>D1005</t>
+  </si>
+  <si>
+    <t>M1000</t>
+  </si>
+  <si>
+    <t>M1001</t>
+  </si>
+  <si>
+    <t>M1002</t>
+  </si>
+  <si>
+    <t>M1003</t>
+  </si>
+  <si>
+    <t>M1004</t>
+  </si>
+  <si>
+    <t>M1005</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030313830303034313430323030303130314d2a3030313030313031</t>
+  </si>
+  <si>
+    <t>353030303030464630334646303030303043303030343031303130303030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +485,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -427,19 +508,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -456,6 +596,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F11C931-DC32-4814-BEDA-574093CA32DA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,126 +998,126 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -949,4 +1130,883 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248EEED-838F-49DD-BE6D-68BC463CCFA0}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="87.44140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B4, ROW(INDIRECT("1:" &amp; LEN(B4)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B10, ROW(INDIRECT("1:" &amp; LEN(B10)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B12, ROW(INDIRECT("1:" &amp; LEN(B12)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B14, ROW(INDIRECT("1:" &amp; LEN(B14)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B16, ROW(INDIRECT("1:" &amp; LEN(B16)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B21, ROW(INDIRECT("1:" &amp; LEN(B21)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B22, ROW(INDIRECT("1:" &amp; LEN(B22)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B25, ROW(INDIRECT("1:" &amp; LEN(B25)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B26, ROW(INDIRECT("1:" &amp; LEN(B26)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B27, ROW(INDIRECT("1:" &amp; LEN(B27)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B28, ROW(INDIRECT("1:" &amp; LEN(B28)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B30, ROW(INDIRECT("1:" &amp; LEN(B30)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
+      <c r="C31" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B31, ROW(INDIRECT("1:" &amp; LEN(B31)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B32, ROW(INDIRECT("1:" &amp; LEN(B32)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B36, ROW(INDIRECT("1:" &amp; LEN(B36)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97A6D55-A835-46F4-AF76-48746990C99D}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="87.44140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B4, ROW(INDIRECT("1:" &amp; LEN(B4)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B10, ROW(INDIRECT("1:" &amp; LEN(B10)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B12, ROW(INDIRECT("1:" &amp; LEN(B12)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B14, ROW(INDIRECT("1:" &amp; LEN(B14)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B16, ROW(INDIRECT("1:" &amp; LEN(B16)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="17" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B18, ROW(INDIRECT("1:" &amp; LEN(B18)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00000C000401010000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="17" t="str" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B19, ROW(INDIRECT("1:" &amp; LEN(B19)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00001800041402000101M*00100101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B21, ROW(INDIRECT("1:" &amp; LEN(B21)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B22, ROW(INDIRECT("1:" &amp; LEN(B22)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B25, ROW(INDIRECT("1:" &amp; LEN(B25)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B26, ROW(INDIRECT("1:" &amp; LEN(B26)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B27, ROW(INDIRECT("1:" &amp; LEN(B27)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B28, ROW(INDIRECT("1:" &amp; LEN(B28)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19"/>
+      <c r="C29" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B30, ROW(INDIRECT("1:" &amp; LEN(B30)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
+      <c r="C31" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B31, ROW(INDIRECT("1:" &amp; LEN(B31)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B32, ROW(INDIRECT("1:" &amp; LEN(B32)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B36, ROW(INDIRECT("1:" &amp; LEN(B36)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="e" cm="1">
+        <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\566474\Documents\Projects\plc\PlcConnect\PlcConnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EFEDA-46F1-4B40-9FCD-C4860FB14D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9650717D-CF25-430E-ADC6-280DC175912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77B4C35D-4F0D-4500-8465-1776D1B96FB0}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Read</t>
   </si>
@@ -413,6 +413,75 @@
   </si>
   <si>
     <t>353030303030464630334646303030303043303030343031303130303030</t>
+  </si>
+  <si>
+    <t>3530303030304646303346463030303031383030303430343031303030314d2a30303130303030303031</t>
+  </si>
+  <si>
+    <t>500000FF03FF000018000404010001M*0010000001</t>
+  </si>
+  <si>
+    <t>500000FF03FF00001800041402000101M*00100101</t>
+  </si>
+  <si>
+    <t>4430303030304646303346463030303030353030303031</t>
+  </si>
+  <si>
+    <t>4430303030304646303346463030303030353030303030</t>
+  </si>
+  <si>
+    <t>M1000(res)</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030323030303034303430333030303030313031442a303031303030442a303031303030</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030323030303034303430333030303030313031442a303031303031442a303031303031</t>
+  </si>
+  <si>
+    <t>500000FF03FF0000200004040300000101D*001001D*001001</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030324330303034313430323030303030313031442a30303130303030303030442a3030313030303030303030303030</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030324330303034313430323030303030313031442a30303130303030303031442a3030313030303030303030303031</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030324330303034313430323030303030313031442a30303130303030303038442a3030313030303030303030303038</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030324330303034313430323030303030313031442a30303130303030303230442a3030313030303030303030303230</t>
+  </si>
+  <si>
+    <t>35303030303046463033464630303030324330303034313430323030303030313031442a30303130303030303746442a3030313030303030303030303746</t>
+  </si>
+  <si>
+    <t>500000FF03FF00002C0004140200000101D*0010000001D*00100000000001</t>
+  </si>
+  <si>
+    <t>44303030303046463033464630303030313030303030303030303030303030303030</t>
+  </si>
+  <si>
+    <t>44303030303046463033464630303030313030303030303030313030303030303031</t>
+  </si>
+  <si>
+    <t>44303030303046463033464630303030313030303030303030333030303030303033</t>
+  </si>
+  <si>
+    <t>44303030303046463033464630303030313030303030303037463030303030303746</t>
+  </si>
+  <si>
+    <t>ReadDPlc.Value	"44303030303046463033464630303030313030303030303030303030303030303030"</t>
+  </si>
+  <si>
+    <t>ReadDPlc.Value	"44303030303046463033464630303030313030303030303030313030303030303031"</t>
+  </si>
+  <si>
+    <t>ReadDPlc.Value	"44303030303046463033464630303030313030303030303030333030303030303033"</t>
+  </si>
+  <si>
+    <t>ReadDPlc.Value	"44303030303046463033464630303030313030303030303037463030303030303746"</t>
   </si>
 </sst>
 </file>
@@ -574,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,22 +666,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,10 +689,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1071,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1022,7 +1088,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1037,10 +1103,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
@@ -1054,8 +1120,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -1067,8 +1133,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3">
         <v>14</v>
       </c>
@@ -1080,8 +1146,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3">
         <v>15</v>
       </c>
@@ -1093,8 +1159,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3">
@@ -1108,8 +1174,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -1134,425 +1200,582 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248EEED-838F-49DD-BE6D-68BC463CCFA0}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="108.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17" t="e" cm="1">
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B4, ROW(INDIRECT("1:" &amp; LEN(B4)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+        <v>500000FF03FF0000200004040300000101D*001000D*001000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B5, ROW(INDIRECT("1:" &amp; LEN(B5)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF0000100000000000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF0000100000000100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B7, ROW(INDIRECT("1:" &amp; LEN(B7)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF0000100000000300000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>127</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF0000100000007F0000007F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B9, ROW(INDIRECT("1:" &amp; LEN(B9)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B10, ROW(INDIRECT("1:" &amp; LEN(B10)/2))*2-1, 2))))</f>
+        <v>500000FF03FF0000200004040300000101D*001001D*001001</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B11, ROW(INDIRECT("1:" &amp; LEN(B11)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B12, ROW(INDIRECT("1:" &amp; LEN(B12)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B13, ROW(INDIRECT("1:" &amp; LEN(B13)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>127</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B14, ROW(INDIRECT("1:" &amp; LEN(B14)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B16, ROW(INDIRECT("1:" &amp; LEN(B16)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B10, ROW(INDIRECT("1:" &amp; LEN(B10)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B18, ROW(INDIRECT("1:" &amp; LEN(B18)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B12, ROW(INDIRECT("1:" &amp; LEN(B12)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B20, ROW(INDIRECT("1:" &amp; LEN(B20)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B14, ROW(INDIRECT("1:" &amp; LEN(B14)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B22, ROW(INDIRECT("1:" &amp; LEN(B22)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B16, ROW(INDIRECT("1:" &amp; LEN(B16)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00000C000401010000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B25, ROW(INDIRECT("1:" &amp; LEN(B25)/2))*2-1, 2))))</f>
+        <v>500000FF03FF000018000404010001M*0010000001</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B27, ROW(INDIRECT("1:" &amp; LEN(B27)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>0</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B28, ROW(INDIRECT("1:" &amp; LEN(B28)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF00000500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
+        <v>D00000FF03FF00000500001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B21, ROW(INDIRECT("1:" &amp; LEN(B21)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B22, ROW(INDIRECT("1:" &amp; LEN(B22)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C25" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B25, ROW(INDIRECT("1:" &amp; LEN(B25)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C26" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B26, ROW(INDIRECT("1:" &amp; LEN(B26)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C27" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B27, ROW(INDIRECT("1:" &amp; LEN(B27)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B28, ROW(INDIRECT("1:" &amp; LEN(B28)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B30, ROW(INDIRECT("1:" &amp; LEN(B30)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B31, ROW(INDIRECT("1:" &amp; LEN(B31)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B32, ROW(INDIRECT("1:" &amp; LEN(B32)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="e" cm="1">
+      <c r="B36" s="15"/>
+      <c r="C36" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B36, ROW(INDIRECT("1:" &amp; LEN(B36)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="17" t="e" cm="1">
+    <row r="37" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="17" t="e" cm="1">
+    <row r="38" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="17" t="e" cm="1">
+    <row r="39" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="17" t="e" cm="1">
+    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="e" cm="1">
+    <row r="41" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="17" t="e" cm="1">
+    <row r="42" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="17" t="e" cm="1">
+    <row r="43" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="17" t="e" cm="1">
+    <row r="44" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="17" t="e" cm="1">
+    <row r="45" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="17" t="e" cm="1">
+    <row r="46" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="17" t="e" cm="1">
+    <row r="47" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+      <c r="C47" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="17" t="e" cm="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="17" t="e" cm="1">
+      <c r="C49" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="17" t="e" cm="1">
+      <c r="C50" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="17" t="e" cm="1">
+      <c r="C51" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="17" t="e" cm="1">
+      <c r="C52" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="17" t="e" cm="1">
+      <c r="C53" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="17" t="e" cm="1">
+      <c r="C54" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="17" t="e" cm="1">
+      <c r="C55" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="17" t="e" cm="1">
+      <c r="C56" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="17" t="e" cm="1">
+      <c r="C57" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="17" t="e" cm="1">
+      <c r="C58" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="17" t="e" cm="1">
+      <c r="C59" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B60, ROW(INDIRECT("1:" &amp; LEN(B60)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B61, ROW(INDIRECT("1:" &amp; LEN(B61)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B62, ROW(INDIRECT("1:" &amp; LEN(B62)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B63, ROW(INDIRECT("1:" &amp; LEN(B63)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B64, ROW(INDIRECT("1:" &amp; LEN(B64)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B65, ROW(INDIRECT("1:" &amp; LEN(B65)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C66" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B66, ROW(INDIRECT("1:" &amp; LEN(B66)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C67" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B67, ROW(INDIRECT("1:" &amp; LEN(B67)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C68" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B68, ROW(INDIRECT("1:" &amp; LEN(B68)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C69" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B69, ROW(INDIRECT("1:" &amp; LEN(B69)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C70" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B70, ROW(INDIRECT("1:" &amp; LEN(B70)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C71" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B71, ROW(INDIRECT("1:" &amp; LEN(B71)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -1567,437 +1790,513 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97A6D55-A835-46F4-AF76-48746990C99D}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="87.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17" t="e" cm="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B4, ROW(INDIRECT("1:" &amp; LEN(B4)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B5, ROW(INDIRECT("1:" &amp; LEN(B5)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00002C0004140200000101D*0010000000D*00100000000000</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00002C0004140200000101D*0010000001D*00100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B7, ROW(INDIRECT("1:" &amp; LEN(B7)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00002C0004140200000101D*0010000008D*00100000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00002C0004140200000101D*0010000020D*00100000000020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>127</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B9, ROW(INDIRECT("1:" &amp; LEN(B9)/2))*2-1, 2))))</f>
+        <v>500000FF03FF00002C0004140200000101D*001000007FD*0010000000007F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B6, ROW(INDIRECT("1:" &amp; LEN(B6)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B11, ROW(INDIRECT("1:" &amp; LEN(B11)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B8, ROW(INDIRECT("1:" &amp; LEN(B8)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B13, ROW(INDIRECT("1:" &amp; LEN(B13)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B10, ROW(INDIRECT("1:" &amp; LEN(B10)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B12, ROW(INDIRECT("1:" &amp; LEN(B12)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B17, ROW(INDIRECT("1:" &amp; LEN(B17)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B14, ROW(INDIRECT("1:" &amp; LEN(B14)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B19, ROW(INDIRECT("1:" &amp; LEN(B19)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B20, ROW(INDIRECT("1:" &amp; LEN(B20)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B16, ROW(INDIRECT("1:" &amp; LEN(B16)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B21, ROW(INDIRECT("1:" &amp; LEN(B21)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="17" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B18, ROW(INDIRECT("1:" &amp; LEN(B18)/2))*2-1, 2))))</f>
+      <c r="C23" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
         <v>500000FF03FF00000C000401010000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="17" t="str" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B19, ROW(INDIRECT("1:" &amp; LEN(B19)/2))*2-1, 2))))</f>
+      <c r="C24" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
         <v>500000FF03FF00001800041402000101M*00100101</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="D26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="D28" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B21, ROW(INDIRECT("1:" &amp; LEN(B21)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B22, ROW(INDIRECT("1:" &amp; LEN(B22)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B30, ROW(INDIRECT("1:" &amp; LEN(B30)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B31, ROW(INDIRECT("1:" &amp; LEN(B31)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B24, ROW(INDIRECT("1:" &amp; LEN(B24)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C25" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B25, ROW(INDIRECT("1:" &amp; LEN(B25)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C26" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B26, ROW(INDIRECT("1:" &amp; LEN(B26)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C27" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B27, ROW(INDIRECT("1:" &amp; LEN(B27)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B28, ROW(INDIRECT("1:" &amp; LEN(B28)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B29, ROW(INDIRECT("1:" &amp; LEN(B29)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B30, ROW(INDIRECT("1:" &amp; LEN(B30)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="17" t="e" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B31, ROW(INDIRECT("1:" &amp; LEN(B31)/2))*2-1, 2))))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="17" t="e" cm="1">
+      <c r="B32" s="15"/>
+      <c r="C32" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B32, ROW(INDIRECT("1:" &amp; LEN(B32)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17" t="e" cm="1">
+    <row r="33" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="17" t="e" cm="1">
+    <row r="34" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17" t="e" cm="1">
+    <row r="35" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="e" cm="1">
+    <row r="36" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B36, ROW(INDIRECT("1:" &amp; LEN(B36)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="17" t="e" cm="1">
+    <row r="37" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="17" t="e" cm="1">
+    <row r="38" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="17" t="e" cm="1">
+    <row r="39" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="17" t="e" cm="1">
+    <row r="40" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="17" t="e" cm="1">
+    <row r="41" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="17" t="e" cm="1">
+    <row r="42" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="17" t="e" cm="1">
+    <row r="43" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="17" t="e" cm="1">
+      <c r="C44" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="17" t="e" cm="1">
+      <c r="C45" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="17" t="e" cm="1">
+      <c r="C46" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="17" t="e" cm="1">
+      <c r="C47" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="17" t="e" cm="1">
+      <c r="C48" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="17" t="e" cm="1">
+      <c r="C49" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="17" t="e" cm="1">
+      <c r="C50" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="17" t="e" cm="1">
+      <c r="C51" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="17" t="e" cm="1">
+      <c r="C52" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="17" t="e" cm="1">
+      <c r="C53" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="17" t="e" cm="1">
+      <c r="C54" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="17" t="e" cm="1">
+      <c r="C55" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="17" t="e" cm="1">
+      <c r="C56" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="17" t="e" cm="1">
+      <c r="C57" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="17" t="e" cm="1">
+      <c r="C58" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="17" t="e" cm="1">
+      <c r="C59" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B60, ROW(INDIRECT("1:" &amp; LEN(B60)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B61, ROW(INDIRECT("1:" &amp; LEN(B61)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B62, ROW(INDIRECT("1:" &amp; LEN(B62)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B63, ROW(INDIRECT("1:" &amp; LEN(B63)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B64, ROW(INDIRECT("1:" &amp; LEN(B64)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B65, ROW(INDIRECT("1:" &amp; LEN(B65)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C66" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B66, ROW(INDIRECT("1:" &amp; LEN(B66)/2))*2-1, 2))))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="C67" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B67, ROW(INDIRECT("1:" &amp; LEN(B67)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\566474\Documents\Projects\plc\PlcConnect\PlcConnect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnon\Documents\Projects\Matrox\plc-connect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9650717D-CF25-430E-ADC6-280DC175912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD00654-B8DB-4DFF-8292-3538D5F51263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{77B4C35D-4F0D-4500-8465-1776D1B96FB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{77B4C35D-4F0D-4500-8465-1776D1B96FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Read" sheetId="4" r:id="rId2"/>
     <sheet name="Write" sheetId="2" r:id="rId3"/>
+    <sheet name="Feature" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>Read</t>
   </si>
@@ -99,7 +100,7 @@
       <rPr>
         <sz val="14"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +110,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,7 +128,7 @@
       <rPr>
         <sz val="14"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +138,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,7 +156,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,7 +166,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +176,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,7 +191,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,7 +201,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -210,7 +211,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,7 +226,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,7 +236,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +246,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,7 +261,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="7" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,7 +271,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +281,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,7 +299,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,7 +309,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,7 +319,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +334,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +344,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +354,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,6 +483,75 @@
   </si>
   <si>
     <t>ReadDPlc.Value	"44303030303046463033464630303030313030303030303037463030303030303746"</t>
+  </si>
+  <si>
+    <t>SendAsyncCommand</t>
+  </si>
+  <si>
+    <t>ReadWriteMc</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>คอลัมน์1</t>
+  </si>
+  <si>
+    <t>คอลัมน์2</t>
+  </si>
+  <si>
+    <t>คอลัมน์3</t>
+  </si>
+  <si>
+    <t>คอลัมน์4</t>
+  </si>
+  <si>
+    <t>คอลัมน์5</t>
+  </si>
+  <si>
+    <t>คอลัมน์6</t>
+  </si>
+  <si>
+    <t>500000FF03FF0000180010040100010064M0001</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>35 30 30 30 30 30 46 46 30 33 46 46 30 30 30 30 31 38 30 30 31 30 30 34 30 31 30 30 30 31 30 30 36 34 4D 30 30 30 31</t>
+  </si>
+  <si>
+    <t>500000FF03FF00001800100401000064D0001</t>
+  </si>
+  <si>
+    <t>35 30 30 30 30 30 46 46 30 33 46 46 30 30 30 30 31 38 30 30 31 30 30 34 30 31 30 30 30 30 36 34 44 30 30 30 31</t>
+  </si>
+  <si>
+    <t>write (1)</t>
+  </si>
+  <si>
+    <t>write (1234)</t>
+  </si>
+  <si>
+    <t>500000FF03FF00001C00101401000064D000104D2</t>
+  </si>
+  <si>
+    <t>35 30 30 30 30 30 46 46 30 33 46 46 30 30 30 30 31 43 30 30 31 30 31 34 30 31 30 30 30 30 36 34 44 30 30 30 31 30 34 44 32</t>
+  </si>
+  <si>
+    <t>500000FF03FF00001C0010140100010064M00011</t>
+  </si>
+  <si>
+    <t>35 30 30 30 30 30 46 46 30 33 46 46 30 30 30 30 31 43 30 30 31 30 31 34 30 31 30 30 30 31 30 30 36 34 4D 30 30 30 31 31</t>
   </si>
 </sst>
 </file>
@@ -492,7 +562,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -500,7 +570,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -508,55 +578,55 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="9" tint="0.39997558519241921"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="7" tint="0.39997558519241921"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="4" tint="0.39997558519241921"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,11 +774,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -721,8 +804,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16D5361C-4EEF-438B-B7A9-6EB6EABA073E}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F8" xr:uid="{16D5361C-4EEF-438B-B7A9-6EB6EABA073E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3E2799E9-B5D2-42D5-8C62-B6622C7F1405}" name="คอลัมน์1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1DF99F02-6FF9-46F6-A6E0-22B5CE0415C9}" name="คอลัมน์2"/>
+    <tableColumn id="3" xr3:uid="{677A4339-7B93-4CEE-9DD3-D2CFBBF397E8}" name="คอลัมน์3"/>
+    <tableColumn id="4" xr3:uid="{4464BB21-93EF-4567-84DD-ADD01D35668C}" name="คอลัมน์4"/>
+    <tableColumn id="5" xr3:uid="{11431F76-C8B1-4DDB-8881-57893853D2AC}" name="คอลัมน์5"/>
+    <tableColumn id="6" xr3:uid="{9A170D56-8BEE-4B97-8463-DF5931355B3D}" name="คอลัมน์6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1044,16 +1142,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.875" style="2"/>
     <col min="2" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="87.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="76.21875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="87.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="76.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>22</v>
@@ -1102,7 +1200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
@@ -1119,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="3">
@@ -1132,7 +1230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="3">
@@ -1145,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="3">
@@ -1158,7 +1256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
         <v>5</v>
@@ -1173,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -1202,22 +1300,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248EEED-838F-49DD-BE6D-68BC463CCFA0}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="108.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="108.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="55.125" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1326,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1243,10 +1341,10 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1356,7 @@
         <v>500000FF03FF0000200004040300000101D*001000D*001000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -1270,7 +1368,7 @@
         <v>D00000FF03FF0000100000000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -1282,7 +1380,7 @@
         <v>D00000FF03FF0000100000000100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -1294,7 +1392,7 @@
         <v>D00000FF03FF0000100000000300000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>127</v>
       </c>
@@ -1306,14 +1404,14 @@
         <v>D00000FF03FF0000100000007F0000007F</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B9, ROW(INDIRECT("1:" &amp; LEN(B9)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +1426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>0</v>
       </c>
@@ -1340,7 +1438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -1352,7 +1450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1364,7 +1462,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>127</v>
       </c>
@@ -1376,14 +1474,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B15, ROW(INDIRECT("1:" &amp; LEN(B15)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -1393,10 +1491,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
@@ -1406,10 +1504,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +1517,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
@@ -1432,14 +1530,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B23, ROW(INDIRECT("1:" &amp; LEN(B23)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1549,7 @@
         <v>500000FF03FF00000C000401010000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>39</v>
       </c>
@@ -1463,10 +1561,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -1479,7 +1577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>0</v>
       </c>
@@ -1491,7 +1589,7 @@
         <v>D00000FF03FF00000500000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>1</v>
       </c>
@@ -1503,22 +1601,22 @@
         <v>D00000FF03FF00000500001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>33</v>
       </c>
@@ -1528,7 +1626,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1636,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -1548,7 +1646,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
@@ -1558,222 +1656,222 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
       <c r="C44" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B60, ROW(INDIRECT("1:" &amp; LEN(B60)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B61, ROW(INDIRECT("1:" &amp; LEN(B61)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B62, ROW(INDIRECT("1:" &amp; LEN(B62)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B63, ROW(INDIRECT("1:" &amp; LEN(B63)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B64, ROW(INDIRECT("1:" &amp; LEN(B64)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B65, ROW(INDIRECT("1:" &amp; LEN(B65)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B66, ROW(INDIRECT("1:" &amp; LEN(B66)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C67" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B67, ROW(INDIRECT("1:" &amp; LEN(B67)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C68" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B68, ROW(INDIRECT("1:" &amp; LEN(B68)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B69, ROW(INDIRECT("1:" &amp; LEN(B69)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C70" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B70, ROW(INDIRECT("1:" &amp; LEN(B70)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C71" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B71, ROW(INDIRECT("1:" &amp; LEN(B71)/2))*2-1, 2))))</f>
         <v>#REF!</v>
@@ -1796,18 +1894,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
-    <col min="4" max="4" width="72.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="72.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1916,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1833,10 +1931,10 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1944,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -1861,7 +1959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -1873,7 +1971,7 @@
         <v>500000FF03FF00002C0004140200000101D*0010000001D*00100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>8</v>
       </c>
@@ -1885,7 +1983,7 @@
         <v>500000FF03FF00002C0004140200000101D*0010000008D*00100000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>32</v>
       </c>
@@ -1897,7 +1995,7 @@
         <v>500000FF03FF00002C0004140200000101D*0010000020D*00100000000020</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>127</v>
       </c>
@@ -1909,10 +2007,10 @@
         <v>500000FF03FF00002C0004140200000101D*001000007FD*0010000000007F</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1922,10 +2020,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
@@ -1935,10 +2033,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
@@ -1948,10 +2046,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1961,10 +2059,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>30</v>
       </c>
@@ -1974,14 +2072,14 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B20, ROW(INDIRECT("1:" &amp; LEN(B20)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
@@ -1991,10 +2089,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>32</v>
       </c>
@@ -2006,7 +2104,7 @@
         <v>500000FF03FF00000C000401010000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
@@ -2021,25 +2119,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="D26" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="D28" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>33</v>
       </c>
@@ -2049,7 +2147,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +2157,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>36</v>
       </c>
@@ -2079,222 +2177,222 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B33, ROW(INDIRECT("1:" &amp; LEN(B33)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B34, ROW(INDIRECT("1:" &amp; LEN(B34)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B35, ROW(INDIRECT("1:" &amp; LEN(B35)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B36, ROW(INDIRECT("1:" &amp; LEN(B36)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B37, ROW(INDIRECT("1:" &amp; LEN(B37)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B38, ROW(INDIRECT("1:" &amp; LEN(B38)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B39, ROW(INDIRECT("1:" &amp; LEN(B39)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B40, ROW(INDIRECT("1:" &amp; LEN(B40)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B41, ROW(INDIRECT("1:" &amp; LEN(B41)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B42, ROW(INDIRECT("1:" &amp; LEN(B42)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B43, ROW(INDIRECT("1:" &amp; LEN(B43)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C44" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B44, ROW(INDIRECT("1:" &amp; LEN(B44)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C45" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B45, ROW(INDIRECT("1:" &amp; LEN(B45)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B46, ROW(INDIRECT("1:" &amp; LEN(B46)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C47" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B47, ROW(INDIRECT("1:" &amp; LEN(B47)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B48, ROW(INDIRECT("1:" &amp; LEN(B48)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B49, ROW(INDIRECT("1:" &amp; LEN(B49)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B50, ROW(INDIRECT("1:" &amp; LEN(B50)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B51, ROW(INDIRECT("1:" &amp; LEN(B51)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B52, ROW(INDIRECT("1:" &amp; LEN(B52)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B53, ROW(INDIRECT("1:" &amp; LEN(B53)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B54, ROW(INDIRECT("1:" &amp; LEN(B54)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B55, ROW(INDIRECT("1:" &amp; LEN(B55)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B56, ROW(INDIRECT("1:" &amp; LEN(B56)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B57, ROW(INDIRECT("1:" &amp; LEN(B57)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B58, ROW(INDIRECT("1:" &amp; LEN(B58)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B59, ROW(INDIRECT("1:" &amp; LEN(B59)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B60, ROW(INDIRECT("1:" &amp; LEN(B60)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B61, ROW(INDIRECT("1:" &amp; LEN(B61)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B62, ROW(INDIRECT("1:" &amp; LEN(B62)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B63, ROW(INDIRECT("1:" &amp; LEN(B63)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B64, ROW(INDIRECT("1:" &amp; LEN(B64)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B65, ROW(INDIRECT("1:" &amp; LEN(B65)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B66, ROW(INDIRECT("1:" &amp; LEN(B66)/2))*2-1, 2))))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="e" cm="1">
         <f t="array" aca="1" ref="C67" ca="1">_xlfn.CONCAT(CHAR(HEX2DEC(MID(B67, ROW(INDIRECT("1:" &amp; LEN(B67)/2))*2-1, 2))))</f>
         <v>#REF!</v>
@@ -2308,4 +2406,153 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF5FC-6FF3-417A-BFD5-249C90F3613B}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="5" width="47.625" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="23" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="23" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" s="23" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>